--- a/投资信息/投资记录和模拟投资.xlsx
+++ b/投资信息/投资记录和模拟投资.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE03264-7164-4B66-9F7C-78F0297CC039}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6FBFDF-E062-4D9B-AAAB-1975C7DC22B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>民生银行</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -332,6 +332,10 @@
     <t>达到10%后，卖出80%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>目前所有大盘后续走势不明朗，建议持有不做任何操作到5月30日观察</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -403,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +417,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -707,6 +717,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="7" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1321,7 +1335,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1446,13 +1460,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+    <row r="8" spans="1:8" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="47">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">

--- a/投资信息/投资记录和模拟投资.xlsx
+++ b/投资信息/投资记录和模拟投资.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6FBFDF-E062-4D9B-AAAB-1975C7DC22B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EACD7F-25C1-4D33-9CE0-99AB0B09B402}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票投资原则" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="数字货币投资原则" sheetId="4" r:id="rId4"/>
     <sheet name="股票分析" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>民生银行</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -336,6 +336,10 @@
     <t>目前所有大盘后续走势不明朗，建议持有不做任何操作到5月30日观察</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>长城汽车跌10%，已清仓止损，卖出价9.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -657,6 +661,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="7" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -717,10 +725,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="7" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1007,317 +1011,317 @@
       <selection activeCell="K3" sqref="K3:R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="17.58203125" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="C1" s="37" t="s">
+    <row r="1" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="C1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="K3" s="36" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="K3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="29"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="32"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="32"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="32"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="32"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="32"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="32"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="32"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="32"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="32"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="32"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="32"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="35"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="36"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="36"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="36"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="36"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="36"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="36"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="36"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="36"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="36"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="36"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="36"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1335,21 +1339,21 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="13" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.08203125" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="8" max="8" width="27.58203125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="11"/>
       <c r="C1" s="4"/>
       <c r="E1" s="7" t="s">
@@ -1359,12 +1363,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="4"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1421,7 +1425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1459,26 +1463,42 @@
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="47">
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="29"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
+        <v>43591</v>
+      </c>
+      <c r="C9" s="4">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>400</v>
+      </c>
+      <c r="E9" s="8">
+        <f>C9*D9</f>
+        <v>10800</v>
+      </c>
+      <c r="F9" s="1">
+        <v>28.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1486,7 +1506,7 @@
       <c r="C10" s="4"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1494,7 +1514,7 @@
       <c r="C11" s="4"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1502,7 +1522,7 @@
       <c r="C12" s="4"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1510,7 +1530,7 @@
       <c r="C13" s="4"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1518,37 +1538,37 @@
       <c r="C14" s="4"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="4"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
       <c r="C16" s="4"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
       <c r="C17" s="4"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
       <c r="C18" s="4"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
       <c r="C19" s="4"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
       <c r="C20" s="4"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
       <c r="C21" s="4"/>
       <c r="E21" s="8"/>
@@ -1568,18 +1588,18 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="24" customWidth="1"/>
     <col min="5" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="18.75" style="21" customWidth="1"/>
     <col min="8" max="8" width="18.75" customWidth="1"/>
-    <col min="9" max="9" width="13.58203125" customWidth="1"/>
-    <col min="11" max="11" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1639,7 +1659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1675,7 +1695,7 @@
         <v>14862.400799999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1711,7 +1731,7 @@
         <v>4925.3614108399997</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1743,7 +1763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1779,7 +1799,7 @@
         <v>19787.762210839999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1794,7 +1814,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1809,7 +1829,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1824,7 +1844,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1839,7 +1859,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1854,7 +1874,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1869,7 +1889,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="16"/>
       <c r="F14" s="18"/>
       <c r="G14" s="20">
@@ -1877,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="16"/>
       <c r="F15" s="18"/>
       <c r="G15" s="20">
@@ -1885,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C16" s="16"/>
       <c r="F16" s="18"/>
       <c r="G16" s="20">
@@ -1893,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C17" s="16"/>
       <c r="F17" s="18"/>
       <c r="G17" s="20">
@@ -1901,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="16"/>
       <c r="F18" s="18"/>
       <c r="G18" s="20">
@@ -1909,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="16"/>
       <c r="F19" s="18"/>
       <c r="G19" s="20">
@@ -1917,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="16"/>
       <c r="F20" s="18"/>
       <c r="G20" s="20">
@@ -1925,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C21" s="16"/>
       <c r="F21" s="18"/>
       <c r="G21" s="20">
@@ -1933,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="16"/>
       <c r="F22" s="18"/>
       <c r="G22" s="20">
@@ -1941,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="16"/>
       <c r="F23" s="18"/>
       <c r="G23" s="20">
@@ -1949,26 +1969,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" s="16"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C25" s="16"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C26" s="16"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" s="16"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C29" s="16"/>
     </row>
   </sheetData>
@@ -1986,17 +2006,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="25">
         <v>43516</v>
       </c>
@@ -2012,7 +2032,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>19</v>
       </c>
@@ -2028,7 +2048,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
@@ -2044,92 +2064,92 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="13" spans="2:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="42"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="46" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="45"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="45"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="45"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="45"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="45"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-    </row>
-    <row r="23" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2149,34 +2169,34 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>

--- a/投资信息/投资记录和模拟投资.xlsx
+++ b/投资信息/投资记录和模拟投资.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EACD7F-25C1-4D33-9CE0-99AB0B09B402}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63541AF-CD40-4611-AAF1-4FA4F5AF5FC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票投资原则" sheetId="2" r:id="rId1"/>
-    <sheet name="股票投资记录-民生银行" sheetId="1" r:id="rId2"/>
-    <sheet name="数字货币投资" sheetId="3" r:id="rId3"/>
-    <sheet name="数字货币投资原则" sheetId="4" r:id="rId4"/>
-    <sheet name="股票分析" sheetId="5" r:id="rId5"/>
+    <sheet name="股票分析" sheetId="5" r:id="rId2"/>
+    <sheet name="股票投资记录-民生银行" sheetId="1" r:id="rId3"/>
+    <sheet name="数字货币投资" sheetId="3" r:id="rId4"/>
+    <sheet name="数字货币投资原则" sheetId="4" r:id="rId5"/>
+    <sheet name="20190616 更换数字货币投资策略" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>民生银行</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -340,6 +341,223 @@
     <t>长城汽车跌10%，已清仓止损，卖出价9.00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>BTC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照《随机漫步者》理论
+1，根据概率统计学，风险投资都存在黑天鹅，看似非常稳定收入的债券，也会出现超出预测的暴跌，所以，许多交易员觉得很稳定的收入方式，比如购买债券，按照历史的价格走势和波动，就会认为那就是规律和铁律，实际上超出他们想象以外的概率事件总会发生，当黑天鹅来临的时候，总会让他们一贫如洗。
+2，很多人在做风险投资的时候，对比两种投资方式  某个股票和另一个股票相比，下跌概率是不同的，但是一旦上涨会带来丰厚的回报，但是下跌的概率会比较大，另一个下跌的概率相对较少，但涨幅会有限， 许多人会选择相对稳定的方法， 所以你会发现，有些人总是一直选择相对稳定的投资，多年来奉行自己的投资策略，突然出现黑天鹅就会回到从前，还有一个些人一直在赔钱，但只要某一次成功，变会带来丰厚的回报。
+3，风险投资一定要克服人性的贪婪，因为风险很大，一定不要All in，永远不要拿所有去赌，要用灵活的闲钱的去做风险投资，亏掉了就认赔，一旦出现正面黑天鹅就会带来丰厚的回报。
+以此，我调整如下投资方式：  后来发现BTT总币发行量太大，1万亿个，太不靠谱，于是更换为其他
+1，将比特币和BCH部分调整，将当前的币仓位调整为 两种风险较大的币种，用1w 和3w 购买风险较大的币种， 如波场和BTT，
+2，调整原因：BTT是 孙宇晨收购Bittorrent，于2019年2月发行，2月期间正式BIT最低的时候，从2月至今，比特币逐渐上涨了3倍，缓慢运量中，孙宇晨手中持有大量BTT币，就像TRX一样，拉高很容易操作，酝酿高位出手套现
+3，投资策略：
+1，如果该币某天暴涨，出现10倍以上的交易，则开始关注
+2，如果该币超过50倍，则套现20%
+3，如果该笔达到100倍，且在一天中暴涨超过200%，则立即清场， 只要超过100倍，立即清场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">风险：
+此方法为高风险，失败带来的损失：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1，该币退市，4w元血本无归
+2，该币跌幅超过购买时的50%，立即止损卖出
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，投资成功后续
+1，不要被一次机遇和运气冲昏了头，就以为这是万铁的方法，内心膨胀，欲望和贪念吞噬自己，清场的钱大部分转到固定资产，创造每年固定的收入，如购买 写字楼或者商铺，保证家里生活开支，不要用这个钱继续获得更大的收益，因为总市值也就那么大。
+2，写字楼或商铺一年收益需满足一年的正常开支,
+3，购买房子固定资产
+4，自己创业做生意
+5，继续留着少部分钱做风险投资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出所有XRP到BTC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>币名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git提交数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8400w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCHABC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCHSV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>990亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>450亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>126亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出4w多BCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -354,7 +572,7 @@
     <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0.00000_);[Red]\(&quot;¥&quot;#,##0.00000\)"/>
     <numFmt numFmtId="181" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,8 +628,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +662,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -725,6 +966,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1335,10 +1592,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15A563E-6B4E-442D-B664-7F703380BB2C}">
+  <dimension ref="A3:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1580,12 +1884,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84D7A42-A75E-4DC7-BA35-84D0E3FE7A81}">
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1597,9 +1901,10 @@
     <col min="8" max="8" width="18.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1628,7 +1933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1659,7 +1964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1695,7 +2000,7 @@
         <v>14862.400799999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1731,7 +2036,7 @@
         <v>4925.3614108399997</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1763,7 +2068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1785,7 +2090,7 @@
         <v>634.85540000000003</v>
       </c>
       <c r="G7" s="20">
-        <f t="shared" ref="G7:G23" si="0">F7 * 6.76</f>
+        <f t="shared" ref="G7:G9" si="0">F7 * 6.76</f>
         <v>4291.6225039999999</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1799,37 +2104,75 @@
         <v>19787.762210839999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="17"/>
+      <c r="B8" s="11">
+        <v>43594</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2200</v>
+      </c>
+      <c r="F8" s="17">
+        <f>C8*E8</f>
+        <v>925.76</v>
+      </c>
       <c r="G8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+        <v>6258.1376</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="60" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="54">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="20">
+      <c r="B9" s="55">
+        <v>43632</v>
+      </c>
+      <c r="C9" s="56">
+        <v>432.88</v>
+      </c>
+      <c r="D9" s="57">
+        <v>3009</v>
+      </c>
+      <c r="E9" s="54">
+        <v>14</v>
+      </c>
+      <c r="F9" s="58">
+        <f>C9*E9</f>
+        <v>6060.32</v>
+      </c>
+      <c r="G9" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+        <v>40967.763199999994</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1838,13 +2181,10 @@
       <c r="D10" s="23"/>
       <c r="E10" s="1"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G10" s="20"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1853,13 +2193,10 @@
       <c r="D11" s="23"/>
       <c r="E11" s="1"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G11" s="20"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1868,13 +2205,10 @@
       <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1883,91 +2217,58 @@
       <c r="D13" s="23"/>
       <c r="E13" s="1"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G13" s="20"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="16"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="16"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C16" s="16"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C17" s="16"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="16"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="16"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="16"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C21" s="16"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="16"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="16"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" s="16"/>
@@ -1994,11 +2295,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8E5CED-AB8E-4E95-8007-B7EC44227339}">
   <dimension ref="B1:M23"/>
   <sheetViews>
@@ -2161,47 +2462,949 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15A563E-6B4E-442D-B664-7F703380BB2C}">
-  <dimension ref="A3:A13"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5595687D-BA62-4760-99E5-F025A45350F0}">
+  <dimension ref="C5:Y53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C5" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="R11" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="R30" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" t="s">
+        <v>42</v>
+      </c>
+      <c r="T30" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="R31" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="R32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S32" t="s">
+        <v>47</v>
+      </c>
+      <c r="T32">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="R33" t="s">
+        <v>48</v>
+      </c>
+      <c r="S33" t="s">
+        <v>49</v>
+      </c>
+      <c r="T33">
+        <v>2.87</v>
+      </c>
+      <c r="U33">
+        <v>11749</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="R34" t="s">
+        <v>50</v>
+      </c>
+      <c r="S34" t="s">
+        <v>51</v>
+      </c>
+      <c r="T34">
+        <v>950</v>
+      </c>
+      <c r="U34">
+        <v>11650</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="R35" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="R36" t="s">
+        <v>53</v>
+      </c>
+      <c r="S36" t="s">
+        <v>47</v>
+      </c>
+      <c r="T36">
+        <v>48.1</v>
+      </c>
+      <c r="U36">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="R37" t="s">
+        <v>54</v>
+      </c>
+      <c r="S37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="R38" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" t="s">
+        <v>56</v>
+      </c>
+      <c r="T38">
+        <v>0.22</v>
+      </c>
+      <c r="U38">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="R39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" t="s">
+        <v>58</v>
+      </c>
+      <c r="T39">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>28</v>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="R40" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" t="s">
+        <v>60</v>
+      </c>
+      <c r="T40">
+        <v>96</v>
+      </c>
+      <c r="U40">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="R41" t="s">
+        <v>61</v>
+      </c>
+      <c r="S41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>63</v>
+      </c>
+      <c r="S42" t="s">
+        <v>64</v>
+      </c>
+      <c r="T42">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="R43" t="s">
+        <v>65</v>
+      </c>
+      <c r="S43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="R44" t="s">
+        <v>67</v>
+      </c>
+      <c r="S44" t="s">
+        <v>47</v>
+      </c>
+      <c r="T44">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="U44">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="R45" t="s">
+        <v>63</v>
+      </c>
+      <c r="S45" t="s">
+        <v>64</v>
+      </c>
+      <c r="T45">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="U45">
+        <v>14823</v>
+      </c>
+      <c r="V45">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="R46" t="s">
+        <v>68</v>
+      </c>
+      <c r="S46" t="s">
+        <v>47</v>
+      </c>
+      <c r="T46">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="R47" t="s">
+        <v>69</v>
+      </c>
+      <c r="S47" t="s">
+        <v>70</v>
+      </c>
+      <c r="T47">
+        <v>2.56</v>
+      </c>
+      <c r="U47">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="R48" t="s">
+        <v>71</v>
+      </c>
+      <c r="S48" t="s">
+        <v>72</v>
+      </c>
+      <c r="T48">
+        <v>0.15</v>
+      </c>
+      <c r="U48">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="49" spans="18:22" x14ac:dyDescent="0.2">
+      <c r="R49" t="s">
+        <v>73</v>
+      </c>
+      <c r="S49" t="s">
+        <v>60</v>
+      </c>
+      <c r="T49">
+        <v>11.59</v>
+      </c>
+      <c r="U49">
+        <v>56</v>
+      </c>
+      <c r="V49">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="18:22" x14ac:dyDescent="0.2">
+      <c r="R50" t="s">
+        <v>74</v>
+      </c>
+      <c r="S50" t="s">
+        <v>47</v>
+      </c>
+      <c r="T50">
+        <v>12.02</v>
+      </c>
+      <c r="U50">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="51" spans="18:22" x14ac:dyDescent="0.2">
+      <c r="R51" t="s">
+        <v>75</v>
+      </c>
+      <c r="S51" t="s">
+        <v>76</v>
+      </c>
+      <c r="T51">
+        <v>14.46</v>
+      </c>
+      <c r="U51">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="52" spans="18:22" x14ac:dyDescent="0.2">
+      <c r="R52" t="s">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s">
+        <v>78</v>
+      </c>
+      <c r="T52">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="U52">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="53" spans="18:22" x14ac:dyDescent="0.2">
+      <c r="R53" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C5:P27"/>
+    <mergeCell ref="R11:Y27"/>
+    <mergeCell ref="C30:P38"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/投资信息/投资记录和模拟投资.xlsx
+++ b/投资信息/投资记录和模拟投资.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63541AF-CD40-4611-AAF1-4FA4F5AF5FC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF52322-6892-42D1-A009-4055530CB790}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票投资原则" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>民生银行</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -556,6 +556,22 @@
   </si>
   <si>
     <t>卖出4w多BCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -906,6 +922,16 @@
     <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="7" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -975,13 +1001,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1268,317 +1287,317 @@
       <selection activeCell="K3" sqref="K3:R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="17.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="2:18" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="C1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="31" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="K3" s="40" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="K3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="36"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="36"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="36"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="36"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="36"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="36"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="36"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="36"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="36"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="36"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="44"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="44"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="44"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="44"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="44"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="44"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="44"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="44"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="44"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="44"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="44"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1599,34 +1618,34 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1646,18 +1665,18 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="13" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="8" max="8" width="27.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="11"/>
       <c r="C1" s="4"/>
       <c r="E1" s="7" t="s">
@@ -1667,12 +1686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="11"/>
       <c r="C2" s="4"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1692,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1713,7 +1732,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1729,7 +1748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1750,7 +1769,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1771,7 +1790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="27">
         <v>5</v>
       </c>
@@ -1781,7 +1800,7 @@
       <c r="C8" s="29"/>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1802,7 +1821,7 @@
         <v>28.16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1810,7 +1829,7 @@
       <c r="C10" s="4"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1818,7 +1837,7 @@
       <c r="C11" s="4"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1826,7 +1845,7 @@
       <c r="C12" s="4"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1834,7 +1853,7 @@
       <c r="C13" s="4"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1842,37 +1861,37 @@
       <c r="C14" s="4"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11"/>
       <c r="C15" s="4"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="11"/>
       <c r="C16" s="4"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="11"/>
       <c r="C17" s="4"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="11"/>
       <c r="C18" s="4"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="11"/>
       <c r="C19" s="4"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="11"/>
       <c r="C20" s="4"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="11"/>
       <c r="C21" s="4"/>
       <c r="E21" s="8"/>
@@ -1888,23 +1907,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84D7A42-A75E-4DC7-BA35-84D0E3FE7A81}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="24" customWidth="1"/>
     <col min="5" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="18.75" style="21" customWidth="1"/>
     <col min="8" max="8" width="18.75" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.58203125" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1933,7 +1952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1964,7 +1983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1982,7 +2001,7 @@
         <v>259.08999999999997</v>
       </c>
       <c r="F4" s="17">
-        <f>C4*E4</f>
+        <f t="shared" ref="F4:F11" si="0">C4*E4</f>
         <v>79.048358999999991</v>
       </c>
       <c r="G4" s="20">
@@ -2000,7 +2019,7 @@
         <v>14862.400799999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2018,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="17">
-        <f>C5*E5</f>
+        <f t="shared" si="0"/>
         <v>367.38</v>
       </c>
       <c r="G5" s="20">
@@ -2036,7 +2055,7 @@
         <v>4925.3614108399997</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2054,7 +2073,7 @@
         <v>13.08</v>
       </c>
       <c r="F6" s="17">
-        <f>C6*E6</f>
+        <f t="shared" si="0"/>
         <v>1831.2</v>
       </c>
       <c r="G6" s="20">
@@ -2068,7 +2087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2086,11 +2105,11 @@
         <v>1951</v>
       </c>
       <c r="F7" s="17">
-        <f>C7*E7</f>
+        <f t="shared" si="0"/>
         <v>634.85540000000003</v>
       </c>
       <c r="G7" s="20">
-        <f t="shared" ref="G7:G9" si="0">F7 * 6.76</f>
+        <f t="shared" ref="G7:G9" si="1">F7 * 6.76</f>
         <v>4291.6225039999999</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2104,7 +2123,7 @@
         <v>19787.762210839999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2121,11 +2140,11 @@
         <v>2200</v>
       </c>
       <c r="F8" s="17">
-        <f>C8*E8</f>
+        <f t="shared" si="0"/>
         <v>925.76</v>
       </c>
       <c r="G8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6258.1376</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2138,158 +2157,238 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="60" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="54">
+    <row r="9" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="31">
         <v>7</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="32">
         <v>43632</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="33">
         <v>432.88</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="34">
         <v>3009</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="31">
         <v>14</v>
       </c>
-      <c r="F9" s="58">
-        <f>C9*E9</f>
+      <c r="F9" s="35">
+        <f t="shared" si="0"/>
         <v>6060.32</v>
       </c>
-      <c r="G9" s="59">
-        <f t="shared" si="0"/>
+      <c r="G9" s="36">
+        <f t="shared" si="1"/>
         <v>40967.763199999994</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
+        <v>43634</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2.0579999999999998</v>
+      </c>
+      <c r="D10" s="23">
+        <f>C10*6.67</f>
+        <v>13.726859999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>752.71630000000005</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>1549.0901454</v>
+      </c>
+      <c r="G10" s="20">
+        <f>F10 * 6.76</f>
+        <v>10471.849382904</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
+        <v>43634</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1.51</v>
+      </c>
+      <c r="D11" s="23">
+        <f>C11*6.67</f>
+        <v>10.0717</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1026.3860999999999</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>1549.8430109999999</v>
+      </c>
+      <c r="G11" s="20">
+        <f>F11 * 6.76</f>
+        <v>10476.938754359999</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
+        <v>43634</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D12" s="23">
+        <f>C12*6.67</f>
+        <v>3.2015999999999996E-2</v>
+      </c>
+      <c r="E12" s="38">
+        <v>315010.39130000002</v>
+      </c>
+      <c r="F12" s="17">
+        <f>C12*E12</f>
+        <v>1512.04987824</v>
+      </c>
+      <c r="G12" s="20">
+        <f>F12 * 6.76</f>
+        <v>10221.457176902401</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <v>43634</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D13" s="23">
+        <f>C13*6.67</f>
+        <v>8.6709999999999999E-3</v>
+      </c>
+      <c r="E13">
+        <v>1104972</v>
+      </c>
+      <c r="F13" s="17">
+        <f>C13*E13</f>
+        <v>1436.4636</v>
+      </c>
+      <c r="G13" s="20">
+        <f>F13 * 6.76</f>
+        <v>9710.4939360000008</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C14" s="16"/>
       <c r="F14" s="18"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C15" s="16"/>
       <c r="F15" s="18"/>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C16" s="16"/>
       <c r="F16" s="18"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C17" s="16"/>
       <c r="F17" s="18"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C18" s="16"/>
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C19" s="16"/>
       <c r="F19" s="18"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C20" s="16"/>
       <c r="F20" s="18"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C21" s="16"/>
       <c r="F21" s="18"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C22" s="16"/>
       <c r="F22" s="18"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C23" s="16"/>
       <c r="F23" s="18"/>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="16"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="16"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="16"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="16"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="16"/>
     </row>
   </sheetData>
@@ -2307,17 +2406,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="25">
         <v>43516</v>
       </c>
@@ -2333,7 +2432,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
         <v>19</v>
       </c>
@@ -2349,7 +2448,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
@@ -2365,92 +2464,92 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="42" t="s">
+    <row r="13" spans="2:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="45"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="45"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="45"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="45"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="45"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-    </row>
-    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="50" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="53"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="53"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="54"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="53"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="54"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="53"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="54"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="53"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="54"/>
+    </row>
+    <row r="20" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
+    </row>
+    <row r="21" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
+    </row>
+    <row r="23" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2466,537 +2565,537 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5595687D-BA62-4760-99E5-F025A45350F0}">
   <dimension ref="C5:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C5" s="51" t="s">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C5" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-    </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-    </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-    </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-    </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="R11" s="52" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="R11" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-    </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-    </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C30" s="51" t="s">
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C30" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
       <c r="R30" t="s">
         <v>41</v>
       </c>
@@ -3010,21 +3109,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
       <c r="R31" t="s">
         <v>36</v>
       </c>
@@ -3032,21 +3131,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
       <c r="R32" t="s">
         <v>46</v>
       </c>
@@ -3057,21 +3156,21 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
       <c r="R33" t="s">
         <v>48</v>
       </c>
@@ -3085,21 +3184,21 @@
         <v>11749</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
       <c r="R34" t="s">
         <v>50</v>
       </c>
@@ -3113,21 +3212,21 @@
         <v>11650</v>
       </c>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
       <c r="R35" t="s">
         <v>52</v>
       </c>
@@ -3135,21 +3234,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
       <c r="R36" t="s">
         <v>53</v>
       </c>
@@ -3163,21 +3262,21 @@
         <v>833</v>
       </c>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
       <c r="R37" t="s">
         <v>54</v>
       </c>
@@ -3185,21 +3284,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
       <c r="R38" t="s">
         <v>55</v>
       </c>
@@ -3213,7 +3312,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R39" t="s">
         <v>57</v>
       </c>
@@ -3224,7 +3323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R40" t="s">
         <v>59</v>
       </c>
@@ -3238,7 +3337,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R41" t="s">
         <v>61</v>
       </c>
@@ -3246,7 +3345,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R42" t="s">
         <v>63</v>
       </c>
@@ -3257,7 +3356,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R43" t="s">
         <v>65</v>
       </c>
@@ -3265,7 +3364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R44" t="s">
         <v>67</v>
       </c>
@@ -3279,7 +3378,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R45" t="s">
         <v>63</v>
       </c>
@@ -3296,7 +3395,7 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R46" t="s">
         <v>68</v>
       </c>
@@ -3307,7 +3406,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R47" t="s">
         <v>69</v>
       </c>
@@ -3321,7 +3420,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R48" t="s">
         <v>71</v>
       </c>
@@ -3335,7 +3434,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="49" spans="18:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R49" t="s">
         <v>73</v>
       </c>
@@ -3352,7 +3451,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="18:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R50" t="s">
         <v>74</v>
       </c>
@@ -3366,7 +3465,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="51" spans="18:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R51" t="s">
         <v>75</v>
       </c>
@@ -3380,7 +3479,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="52" spans="18:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R52" t="s">
         <v>77</v>
       </c>
@@ -3394,7 +3493,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="53" spans="18:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R53" t="s">
         <v>79</v>
       </c>

--- a/投资信息/投资记录和模拟投资.xlsx
+++ b/投资信息/投资记录和模拟投资.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF52322-6892-42D1-A009-4055530CB790}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0931E9-1261-4DFD-9719-AF616FFC96DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票投资原则" sheetId="2" r:id="rId1"/>
@@ -31,15 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
-  <si>
-    <t>民生银行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票名称：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -572,6 +564,38 @@
   </si>
   <si>
     <t>BTT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖掉，转入ETH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出所有保利股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入威孚高科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>威孚高科</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1001,6 +1025,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1294,7 +1319,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17.5" x14ac:dyDescent="0.3">
       <c r="C1" s="49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
@@ -1309,7 +1334,7 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -1319,7 +1344,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="41"/>
       <c r="K3" s="48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
@@ -1622,32 +1647,32 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1661,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1679,12 +1704,8 @@
     <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="11"/>
       <c r="C1" s="4"/>
-      <c r="E1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="11"/>
@@ -1693,22 +1714,22 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1742,10 +1763,10 @@
       <c r="C5" s="4"/>
       <c r="E5" s="8"/>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1763,10 +1784,10 @@
       </c>
       <c r="E6" s="8"/>
       <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1784,10 +1805,10 @@
       </c>
       <c r="E7" s="8"/>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1795,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="29"/>
       <c r="E8" s="30"/>
@@ -1825,17 +1846,46 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="4"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="11">
+        <v>43674</v>
+      </c>
+      <c r="C10" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="8">
+        <f>C10*D10</f>
+        <v>15620</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="11">
+        <v>43674</v>
+      </c>
+      <c r="C11" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E11" s="8">
+        <f>C11*D11</f>
+        <v>22200</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -1908,7 +1958,7 @@
   <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1925,31 +1975,31 @@
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -1977,10 +2027,10 @@
         <v>99.371999999999986</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2009,10 +2059,10 @@
         <v>534.36690683999996</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
       </c>
       <c r="K4" s="21">
         <f>SUM(G5,G6)</f>
@@ -2045,10 +2095,10 @@
         <v>2483.4888000000001</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" s="21">
         <f>SUM(G3,G4,G7)</f>
@@ -2081,10 +2131,10 @@
         <v>12378.912</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2113,10 +2163,10 @@
         <v>4291.6225039999999</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
         <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
       </c>
       <c r="K7" s="21">
         <f>SUM(K4,K5)</f>
@@ -2148,13 +2198,13 @@
         <v>6258.1376</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
@@ -2182,13 +2232,13 @@
         <v>40967.763199999994</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2217,10 +2267,10 @@
         <v>10471.849382904</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2249,10 +2299,10 @@
         <v>10476.938754359999</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2281,10 +2331,10 @@
         <v>10221.457176902401</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2313,19 +2363,42 @@
         <v>9710.4939360000008</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C14" s="16"/>
+      <c r="B14" s="62">
+        <v>43659</v>
+      </c>
+      <c r="C14" s="15">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="E14">
+        <v>1104972</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="20"/>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="62">
+        <v>43659</v>
+      </c>
       <c r="C15" s="16"/>
+      <c r="E15">
+        <v>4.7649999999999997</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="20"/>
     </row>
@@ -2402,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8E5CED-AB8E-4E95-8007-B7EC44227339}">
   <dimension ref="B1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2413,7 +2486,7 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
@@ -2434,7 +2507,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -2450,7 +2523,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -2467,7 +2540,7 @@
     <row r="13" spans="2:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
@@ -2533,7 +2606,7 @@
     <row r="21" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -2563,17 +2636,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5595687D-BA62-4760-99E5-F025A45350F0}">
-  <dimension ref="C5:Y53"/>
+  <dimension ref="C5:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:P27"/>
+    <sheetView topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C5" s="59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="59"/>
       <c r="E5" s="59"/>
@@ -2685,7 +2758,7 @@
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
       <c r="R11" s="60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S11" s="61"/>
       <c r="T11" s="61"/>
@@ -3081,7 +3154,7 @@
     </row>
     <row r="30" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C30" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
@@ -3097,16 +3170,16 @@
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
       <c r="R30" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" t="s">
         <v>41</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>42</v>
-      </c>
-      <c r="T30" t="s">
-        <v>43</v>
-      </c>
-      <c r="U30" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="31" spans="3:25" x14ac:dyDescent="0.3">
@@ -3125,10 +3198,10 @@
       <c r="O31" s="43"/>
       <c r="P31" s="43"/>
       <c r="R31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="3:25" x14ac:dyDescent="0.3">
@@ -3147,10 +3220,10 @@
       <c r="O32" s="43"/>
       <c r="P32" s="43"/>
       <c r="R32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T32">
         <v>1881</v>
@@ -3172,10 +3245,10 @@
       <c r="O33" s="43"/>
       <c r="P33" s="43"/>
       <c r="R33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T33">
         <v>2.87</v>
@@ -3200,10 +3273,10 @@
       <c r="O34" s="43"/>
       <c r="P34" s="43"/>
       <c r="R34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T34">
         <v>950</v>
@@ -3228,10 +3301,10 @@
       <c r="O35" s="43"/>
       <c r="P35" s="43"/>
       <c r="R35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.3">
@@ -3250,10 +3323,10 @@
       <c r="O36" s="43"/>
       <c r="P36" s="43"/>
       <c r="R36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T36">
         <v>48.1</v>
@@ -3278,10 +3351,10 @@
       <c r="O37" s="43"/>
       <c r="P37" s="43"/>
       <c r="R37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.3">
@@ -3300,10 +3373,10 @@
       <c r="O38" s="43"/>
       <c r="P38" s="43"/>
       <c r="R38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T38">
         <v>0.22</v>
@@ -3314,10 +3387,10 @@
     </row>
     <row r="39" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T39">
         <v>23</v>
@@ -3325,10 +3398,10 @@
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T40">
         <v>96</v>
@@ -3339,18 +3412,18 @@
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T42">
         <v>0.63</v>
@@ -3358,18 +3431,18 @@
     </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T44">
         <v>9.9600000000000009</v>
@@ -3380,10 +3453,10 @@
     </row>
     <row r="45" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T45">
         <v>0.67200000000000004</v>
@@ -3397,10 +3470,10 @@
     </row>
     <row r="46" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T46">
         <v>2.48</v>
@@ -3408,10 +3481,10 @@
     </row>
     <row r="47" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T47">
         <v>2.56</v>
@@ -3422,10 +3495,10 @@
     </row>
     <row r="48" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T48">
         <v>0.15</v>
@@ -3436,10 +3509,10 @@
     </row>
     <row r="49" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T49">
         <v>11.59</v>
@@ -3453,10 +3526,10 @@
     </row>
     <row r="50" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T50">
         <v>12.02</v>
@@ -3467,10 +3540,10 @@
     </row>
     <row r="51" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T51">
         <v>14.46</v>
@@ -3481,10 +3554,10 @@
     </row>
     <row r="52" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T52">
         <v>1.1599999999999999</v>
@@ -3495,7 +3568,44 @@
     </row>
     <row r="53" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R53" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="S53" t="s">
+        <v>84</v>
+      </c>
+      <c r="T53">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="U53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R54" t="s">
+        <v>86</v>
+      </c>
+      <c r="S54" t="s">
+        <v>58</v>
+      </c>
+      <c r="T54">
+        <v>37</v>
+      </c>
+      <c r="U54">
+        <v>16606</v>
+      </c>
+    </row>
+    <row r="55" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R55" t="s">
+        <v>83</v>
+      </c>
+      <c r="S55" t="s">
+        <v>87</v>
+      </c>
+      <c r="T55">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="U55" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
